--- a/resources/AsignacionDeComponentes.xlsx
+++ b/resources/AsignacionDeComponentes.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\workspaceMars\Metric\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="23">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -72,6 +73,27 @@
   </si>
   <si>
     <t>KMeans</t>
+  </si>
+  <si>
+    <t>0,9393483709273182]</t>
+  </si>
+  <si>
+    <t>"Project 2"</t>
+  </si>
+  <si>
+    <t>"Project 8"</t>
+  </si>
+  <si>
+    <t>"Project 9"</t>
+  </si>
+  <si>
+    <t>"Project 16"</t>
+  </si>
+  <si>
+    <t>"Project 17"</t>
+  </si>
+  <si>
+    <t>Hierarchical\nClusterer</t>
   </si>
 </sst>
 </file>
@@ -186,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,732 +267,2855 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
+  <dxfs count="321">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1626,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:Y43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,14 +3842,14 @@
         <v>8</v>
       </c>
       <c r="S1" s="20"/>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2264,15 +4409,15 @@
         <v>0.362720403022669</v>
       </c>
       <c r="R10" s="16"/>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
@@ -2671,15 +4816,15 @@
         <v>-8.7309644670050798E-2</v>
       </c>
       <c r="R19" s="16"/>
-      <c r="S19" s="14" t="s">
+      <c r="S19" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -3076,15 +5221,15 @@
         <v>3.09155766944114E-2</v>
       </c>
       <c r="R28" s="15"/>
-      <c r="S28" s="14" t="s">
+      <c r="S28" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -3454,15 +5599,15 @@
     </row>
     <row r="37" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R37" s="16"/>
-      <c r="S37" s="14" t="s">
+      <c r="S37" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="S38" s="13" t="s">
@@ -3611,119 +5756,119 @@
     <mergeCell ref="S37:Y37"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="83" operator="equal">
       <formula>$C$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5 D7:D36">
-    <cfRule type="expression" dxfId="72" priority="79">
+    <cfRule type="expression" dxfId="319" priority="79">
       <formula>OR($D$2=$C$2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E6">
-    <cfRule type="top10" dxfId="71" priority="78" rank="1"/>
+    <cfRule type="top10" dxfId="318" priority="78" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F6">
-    <cfRule type="top10" dxfId="70" priority="77" rank="1"/>
+    <cfRule type="top10" dxfId="317" priority="77" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G6">
-    <cfRule type="top10" dxfId="69" priority="76" rank="1"/>
+    <cfRule type="top10" dxfId="316" priority="76" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H6">
-    <cfRule type="top10" dxfId="68" priority="75" rank="1"/>
+    <cfRule type="top10" dxfId="315" priority="75" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I6">
-    <cfRule type="top10" dxfId="67" priority="74" rank="1"/>
+    <cfRule type="top10" dxfId="314" priority="74" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E11">
-    <cfRule type="top10" dxfId="66" priority="73" rank="1"/>
+    <cfRule type="top10" dxfId="313" priority="73" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F11">
-    <cfRule type="top10" dxfId="65" priority="72" rank="1"/>
+    <cfRule type="top10" dxfId="312" priority="72" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G11">
-    <cfRule type="top10" dxfId="64" priority="71" rank="1"/>
+    <cfRule type="top10" dxfId="311" priority="71" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H11">
-    <cfRule type="top10" dxfId="63" priority="70" rank="1"/>
+    <cfRule type="top10" dxfId="310" priority="70" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I11">
-    <cfRule type="top10" dxfId="62" priority="69" rank="1"/>
+    <cfRule type="top10" dxfId="309" priority="69" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E16">
-    <cfRule type="top10" dxfId="61" priority="68" rank="1"/>
+    <cfRule type="top10" dxfId="308" priority="68" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F16">
-    <cfRule type="top10" dxfId="60" priority="67" rank="1"/>
+    <cfRule type="top10" dxfId="307" priority="67" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G16">
-    <cfRule type="top10" dxfId="59" priority="66" rank="1"/>
+    <cfRule type="top10" dxfId="306" priority="66" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="top10" dxfId="58" priority="65" rank="1"/>
+    <cfRule type="top10" dxfId="305" priority="65" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I16">
-    <cfRule type="top10" dxfId="57" priority="64" rank="1"/>
+    <cfRule type="top10" dxfId="304" priority="64" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E21">
-    <cfRule type="top10" dxfId="56" priority="63" rank="1"/>
+    <cfRule type="top10" dxfId="303" priority="63" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F21">
-    <cfRule type="top10" dxfId="55" priority="62" rank="1"/>
+    <cfRule type="top10" dxfId="302" priority="62" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G21">
-    <cfRule type="top10" dxfId="54" priority="61" rank="1"/>
+    <cfRule type="top10" dxfId="301" priority="61" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H21">
-    <cfRule type="top10" dxfId="53" priority="60" rank="1"/>
+    <cfRule type="top10" dxfId="300" priority="60" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I21">
-    <cfRule type="top10" dxfId="52" priority="59" rank="1"/>
+    <cfRule type="top10" dxfId="299" priority="59" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E26">
-    <cfRule type="top10" dxfId="51" priority="58" rank="1"/>
+    <cfRule type="top10" dxfId="298" priority="58" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F26">
-    <cfRule type="top10" dxfId="50" priority="57" rank="1"/>
+    <cfRule type="top10" dxfId="297" priority="57" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:G26">
-    <cfRule type="top10" dxfId="49" priority="56" rank="1"/>
+    <cfRule type="top10" dxfId="296" priority="56" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H26">
-    <cfRule type="top10" dxfId="48" priority="55" rank="1"/>
+    <cfRule type="top10" dxfId="295" priority="55" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I26">
-    <cfRule type="top10" dxfId="47" priority="54" rank="1"/>
+    <cfRule type="top10" dxfId="294" priority="54" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E31">
-    <cfRule type="top10" dxfId="46" priority="53" rank="1"/>
+    <cfRule type="top10" dxfId="293" priority="53" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="top10" dxfId="45" priority="52" rank="1"/>
+    <cfRule type="top10" dxfId="292" priority="52" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G31">
-    <cfRule type="top10" dxfId="44" priority="51" rank="1"/>
+    <cfRule type="top10" dxfId="291" priority="51" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H31">
-    <cfRule type="top10" dxfId="43" priority="50" rank="1"/>
+    <cfRule type="top10" dxfId="290" priority="50" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I31">
-    <cfRule type="top10" dxfId="42" priority="49" rank="1"/>
+    <cfRule type="top10" dxfId="289" priority="49" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:E36">
-    <cfRule type="top10" dxfId="41" priority="48" rank="1"/>
+    <cfRule type="top10" dxfId="288" priority="48" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F36">
-    <cfRule type="top10" dxfId="40" priority="47" rank="1"/>
+    <cfRule type="top10" dxfId="287" priority="47" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G36">
-    <cfRule type="top10" dxfId="39" priority="46" rank="1"/>
+    <cfRule type="top10" dxfId="286" priority="46" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H36">
-    <cfRule type="top10" dxfId="38" priority="45" rank="1"/>
+    <cfRule type="top10" dxfId="285" priority="45" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:I36">
-    <cfRule type="top10" dxfId="37" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="284" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L8">
     <cfRule type="colorScale" priority="43">
@@ -3786,94 +5931,1389 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T7">
-    <cfRule type="top10" dxfId="34" priority="35" rank="1"/>
+    <cfRule type="top10" dxfId="283" priority="35" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U7">
-    <cfRule type="top10" dxfId="33" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="282" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V7">
-    <cfRule type="top10" dxfId="32" priority="33" rank="1"/>
+    <cfRule type="top10" dxfId="281" priority="33" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W7">
-    <cfRule type="top10" dxfId="31" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="280" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X7">
-    <cfRule type="top10" dxfId="29" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="279" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y7">
-    <cfRule type="top10" dxfId="28" priority="29" rank="1"/>
+    <cfRule type="top10" dxfId="278" priority="29" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T16">
-    <cfRule type="top10" dxfId="27" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="277" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:U16">
-    <cfRule type="top10" dxfId="26" priority="27" rank="1"/>
+    <cfRule type="top10" dxfId="276" priority="27" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12:V16">
-    <cfRule type="top10" dxfId="25" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="275" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:W16">
-    <cfRule type="top10" dxfId="24" priority="25" rank="1"/>
+    <cfRule type="top10" dxfId="274" priority="25" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X16">
-    <cfRule type="top10" dxfId="22" priority="23" rank="1"/>
+    <cfRule type="top10" dxfId="273" priority="23" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:Y16">
-    <cfRule type="top10" dxfId="21" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="272" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21:T25">
-    <cfRule type="top10" dxfId="20" priority="21" rank="1"/>
+    <cfRule type="top10" dxfId="271" priority="21" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U21:U25">
-    <cfRule type="top10" dxfId="19" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="270" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21:V25">
-    <cfRule type="top10" dxfId="18" priority="19" rank="1"/>
+    <cfRule type="top10" dxfId="269" priority="19" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21:W25">
-    <cfRule type="top10" dxfId="17" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="268" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21:X25">
-    <cfRule type="top10" dxfId="15" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="267" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y21:Y25">
-    <cfRule type="top10" dxfId="14" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="266" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:T34">
-    <cfRule type="top10" dxfId="13" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="265" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U30:U34">
-    <cfRule type="top10" dxfId="12" priority="13" rank="1"/>
+    <cfRule type="top10" dxfId="264" priority="13" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V30:V34">
-    <cfRule type="top10" dxfId="11" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="263" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30:W34">
-    <cfRule type="top10" dxfId="10" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="262" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X30:X34">
-    <cfRule type="top10" dxfId="8" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="261" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y30:Y34">
-    <cfRule type="top10" dxfId="7" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="260" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T39:T43">
-    <cfRule type="top10" dxfId="6" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="259" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U39:U43">
-    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="258" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V39:V43">
-    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="257" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W39:W43">
-    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="256" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X39:X43">
-    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="255" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:Y43">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="254" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="24"/>
+      <c r="B1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.49458268253302501</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.60578776444464799</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.54446953250583996</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.52536363857146995</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.57420851484674695</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.84299971222652004</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.49458268253302501</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.48701760934911398</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.65876032857139</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.46755312458568299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.55839677895456097</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.55839677895456097</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.279302288736265</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.212450731318685</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.67773481751021802</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.60578776444464799</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.55839677895456097</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.30484531573166901</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.46897453065322497</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.29325166972136002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.48701760934911398</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.30484531573166901</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.52858998432645898</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.55154958928576203</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.223087225993058</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.28041322380953598</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.54446953250583996</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.55839677895456097</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.52858998432645898</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.46897453065322497</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.48331486324912698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.65876032857139</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.46897453065322497</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.46897453065322497</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.98083403779613998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.105154958928576</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.42587051041819801</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.52536363857146995</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.279302288736265</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.55154958928576203</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.98083403779613998</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.48546076074591299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.46755312458568299</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.29325166972136002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.48331486324912698</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.48546076074591299</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.39602225221207599</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.46755312458568299</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.57420851484674695</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.212450731318685</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.223087225993058</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.105154958928576</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.39602225221207599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="I8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.84299971222652004</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.67773481751021802</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.28041322380953598</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.42587051041819801</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.46755312458568299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="L12" s="26">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.89473684210526305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.73076923076922995</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.73076923076922995</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.88461538461538403</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.73076923076922995</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.94736842105263097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.73076923076922995</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.89473684210526305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.89473684210526305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.94736842105263097</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.88461538461538403</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.89473684210526305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="I17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.89473684210526305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.69941520467836205</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.64008714596949801</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.71263157894736795</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.52740740740740699</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.512820512820512</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.54444444444444395</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.69941520467836205</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.63161453930684697</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.77283950617283903</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.64322344322344305</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.81163434903047005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.63161453930684697</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.72216117216117204</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.72216117216117204</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.35164835164835101</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.36446886446886401</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.61436501261564302</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.64008714596949801</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.72216117216117204</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.86172839506172805</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.75274725274725196</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.93934837092731804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.77283950617283903</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.86172839506172805</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.60724460724460705</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.69898989898989805</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.47530864197530798</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.71263157894736795</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.72216117216117204</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.75274725274725196</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.66015037593984904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.64322344322344305</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.75274725274725196</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.75274725274725196</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.51176470588235301</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.90608465608465605</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.52740740740740699</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.35164835164835101</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.60724460724460705</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.51176470588235301</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0.865079365079365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.81163434903047005</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.66015037593984904</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.865079365079365</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.607576633892423</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.81163434903047005</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.512820512820512</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.36446886446886401</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.69898989898989805</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.90608465608465605</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.607576633892423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="I26" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.54444444444444395</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.61436501261564302</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.47530864197530798</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0.81163434903047005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.29553840992955299</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.27285318559556698</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.30375749921060902</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1.58924205378973E-2</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3.4280936454849503E-2</v>
+      </c>
+      <c r="G30" s="4">
+        <v>-2.08768267223392E-3</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.29553840992955299</v>
+      </c>
+      <c r="K30" s="4">
+        <v>-9.5213978222334905E-2</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.18054338299736999</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.13537117903930099</v>
+      </c>
+      <c r="N30" s="4">
+        <v>-0.107442403652192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>8</v>
+      </c>
+      <c r="B31" s="4">
+        <v>-9.5213978222334905E-2</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.29789368104312902</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.29789368104312902</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2.2412970910824899E-2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3.09155766944114E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-0.12692017124150101</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.27285318559556698</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.29789368104312902</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0.58147713950762003</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.43734015345268501</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0.59859154929577396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>9</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.18054338299736999</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.58147713950762003</v>
+      </c>
+      <c r="D32" s="4">
+        <v>6.8020304568527798E-2</v>
+      </c>
+      <c r="E32" s="4">
+        <v>-8.7309644670050798E-2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.24947442186405</v>
+      </c>
+      <c r="G32" s="4">
+        <v>3.2642258491398297E-2</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.30375749921060902</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.29789368104312902</v>
+      </c>
+      <c r="L32" s="4">
+        <v>6.8020304568527798E-2</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0.43734015345268501</v>
+      </c>
+      <c r="N32" s="4">
+        <v>-1.14262669713671E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.13537117903930099</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.43734015345268501</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.43734015345268501</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.67367119901112404</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.23699421965317899</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1.58924205378973E-2</v>
+      </c>
+      <c r="K33" s="4">
+        <v>2.2412970910824899E-2</v>
+      </c>
+      <c r="L33" s="4">
+        <v>-8.7309644670050798E-2</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>17</v>
+      </c>
+      <c r="B34" s="4">
+        <v>-0.107442403652192</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.59859154929577396</v>
+      </c>
+      <c r="D34" s="4">
+        <v>-1.14262669713671E-2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>-8.2412808737743495E-2</v>
+      </c>
+      <c r="G34" s="4">
+        <v>-0.101331043366251</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="4">
+        <v>3.4280936454849503E-2</v>
+      </c>
+      <c r="K34" s="4">
+        <v>3.09155766944114E-2</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0.24947442186405</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0.67367119901112404</v>
+      </c>
+      <c r="N34" s="4">
+        <v>-8.2412808737743495E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I35" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="4">
+        <v>-2.08768267223392E-3</v>
+      </c>
+      <c r="K35" s="4">
+        <v>-0.12692017124150101</v>
+      </c>
+      <c r="L35" s="4">
+        <v>3.2642258491398297E-2</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0.23699421965317899</v>
+      </c>
+      <c r="N35" s="4">
+        <v>-0.101331043366251</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="J28:N28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:B4 B6:B7">
+    <cfRule type="top10" dxfId="253" priority="60" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3 C5:C7 C12">
+    <cfRule type="top10" dxfId="252" priority="59" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D7">
+    <cfRule type="top10" dxfId="251" priority="58" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E7">
+    <cfRule type="top10" dxfId="250" priority="57" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F7">
+    <cfRule type="top10" dxfId="249" priority="56" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B13 B15:B16 B5">
+    <cfRule type="top10" dxfId="248" priority="54" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C16">
+    <cfRule type="top10" dxfId="247" priority="53" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D16">
+    <cfRule type="top10" dxfId="246" priority="52" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E16">
+    <cfRule type="top10" dxfId="245" priority="51" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F16">
+    <cfRule type="top10" dxfId="244" priority="50" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12 G14 G4 G16">
+    <cfRule type="top10" dxfId="243" priority="49" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C25">
+    <cfRule type="top10" dxfId="242" priority="47" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D25">
+    <cfRule type="top10" dxfId="241" priority="46" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E25">
+    <cfRule type="top10" dxfId="240" priority="45" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:F25">
+    <cfRule type="top10" dxfId="239" priority="44" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:G22 G13 G24:G25">
+    <cfRule type="top10" dxfId="238" priority="43" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:B32 B34">
+    <cfRule type="top10" dxfId="237" priority="36" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:C34">
+    <cfRule type="top10" dxfId="236" priority="35" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D34">
+    <cfRule type="top10" dxfId="235" priority="34" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E34">
+    <cfRule type="top10" dxfId="234" priority="33" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F34">
+    <cfRule type="top10" dxfId="233" priority="32" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30 G32:G34">
+    <cfRule type="top10" dxfId="232" priority="31" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B24 B33">
+    <cfRule type="top10" dxfId="231" priority="114" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 G5:G6 G15">
+    <cfRule type="top10" dxfId="230" priority="115" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
